--- a/Data/Mobilitet_i_Telemark/Jernbane/Punktlighet/20250331 Telemark sammendrag punktlighet og antall avganger – 2019-2024.xlsx
+++ b/Data/Mobilitet_i_Telemark/Jernbane/Punktlighet/20250331 Telemark sammendrag punktlighet og antall avganger – 2019-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banenor.sharepoint.com/teams/DT_Analyseograpportutvikling/Shared Documents/Nora/Uttrekk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/kjell-tore_haustveit_telemarkfylke_no/Documents/GitHub/Telemark/Data/Mobilitet_i_Telemark/Jernbane/Punktlighet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{2E0DDE3E-ADC0-44AE-80F0-41B0448E1E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9617C3E-8FDE-4252-AEF8-80D30B8F064E}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="8_{2E0DDE3E-ADC0-44AE-80F0-41B0448E1E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58227F0-F4E6-4288-BF56-629909E59B91}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3315" windowWidth="25800" windowHeight="21000" firstSheet="11" activeTab="15" xr2:uid="{53812C4E-B92B-4EE1-BF78-094773A558E2}"/>
+    <workbookView xWindow="2484" yWindow="660" windowWidth="37572" windowHeight="15552" firstSheet="8" activeTab="15" xr2:uid="{53812C4E-B92B-4EE1-BF78-094773A558E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet historisk RE11" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="60">
   <si>
     <t>År</t>
   </si>
@@ -653,9 +653,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -741,7 +741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
       </c>
       <c r="AD2" s="7"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2019</v>
       </c>
@@ -897,7 +897,7 @@
         <v>85.802469135802468</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -987,7 +987,7 @@
         <v>75.675675675675677</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -1077,7 +1077,7 @@
         <v>88.172043010752688</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1167,7 +1167,7 @@
         <v>85.925925925925924</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1257,7 +1257,7 @@
         <v>77.10280373831776</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -1347,7 +1347,7 @@
         <v>82.488479262672811</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -1527,7 +1527,7 @@
         <v>75.647668393782382</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -1617,7 +1617,7 @@
         <v>82.62243285939968</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -1707,7 +1707,7 @@
         <v>81.703470031545748</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -1797,7 +1797,7 @@
         <v>84.194053208137703</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -1887,7 +1887,7 @@
         <v>86.01973684210526</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>83.358098068350671</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -2069,7 +2069,7 @@
         <v>87.122416534181241</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -2159,7 +2159,7 @@
         <v>93.573667711598745</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -2249,7 +2249,7 @@
         <v>95.012468827930178</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -2339,7 +2339,7 @@
         <v>95.184590690208665</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -2429,7 +2429,7 @@
         <v>86.310904872389798</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -2519,7 +2519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -2609,7 +2609,7 @@
         <v>90.614886731391593</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>18</v>
@@ -2699,7 +2699,7 @@
         <v>90.030674846625772</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -2789,7 +2789,7 @@
         <v>89.351851851851848</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -2879,7 +2879,7 @@
         <v>89.538461538461547</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -2969,7 +2969,7 @@
         <v>91.255961844197145</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>88.08446455505279</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -3151,7 +3151,7 @@
         <v>90.709459459459467</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -3241,7 +3241,7 @@
         <v>92.442882249560625</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -3331,7 +3331,7 @@
         <v>91.218637992831546</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -3421,7 +3421,7 @@
         <v>90.180032733224223</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -3511,7 +3511,7 @@
         <v>89.423076923076934</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -3601,7 +3601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -3691,7 +3691,7 @@
         <v>80.952380952380949</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -3781,7 +3781,7 @@
         <v>84.509466437177281</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -3871,7 +3871,7 @@
         <v>86.893203883495147</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>20</v>
@@ -3961,7 +3961,7 @@
         <v>82.042833607907738</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
@@ -4051,7 +4051,7 @@
         <v>84.690553745928327</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2022</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>85.069984447900453</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -4233,7 +4233,7 @@
         <v>89.761092150170654</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -4323,7 +4323,7 @@
         <v>90.225563909774436</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -4413,7 +4413,7 @@
         <v>82.553191489361694</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -4503,7 +4503,7 @@
         <v>86.554621848739501</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -4593,7 +4593,7 @@
         <v>74.4849445324881</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -4683,7 +4683,7 @@
         <v>91.111111111111114</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -4773,7 +4773,7 @@
         <v>79.228486646884264</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>18</v>
@@ -4863,7 +4863,7 @@
         <v>80.095541401273891</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>19</v>
@@ -4953,7 +4953,7 @@
         <v>82.22565687789799</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>20</v>
@@ -5043,7 +5043,7 @@
         <v>84.227129337539424</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>21</v>
@@ -5133,7 +5133,7 @@
         <v>78.396072013093288</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>2023</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>74.591381872213972</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -5315,7 +5315,7 @@
         <v>85.13513513513513</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -5405,7 +5405,7 @@
         <v>80.664652567975835</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -5495,7 +5495,7 @@
         <v>84.095860566448806</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -5585,7 +5585,7 @@
         <v>83.91376451077943</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>14</v>
@@ -5675,7 +5675,7 @@
         <v>72.421052631578945</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -5765,7 +5765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -5855,7 +5855,7 @@
         <v>67.052023121387279</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>18</v>
@@ -5945,7 +5945,7 @@
         <v>79.210925644916543</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -6035,7 +6035,7 @@
         <v>81.748466257668724</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
         <v>20</v>
@@ -6125,7 +6125,7 @@
         <v>82.686084142394819</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
         <v>21</v>
@@ -6215,7 +6215,7 @@
         <v>77.886178861788608</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>2024</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>61.49162861491628</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -6397,7 +6397,7 @@
         <v>75.118858954041201</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
         <v>11</v>
@@ -6487,7 +6487,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -6577,7 +6577,7 @@
         <v>73.250388802488331</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -6667,7 +6667,7 @@
         <v>70.383275261324044</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -6757,7 +6757,7 @@
         <v>77.22419928825623</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -6847,7 +6847,7 @@
         <v>79.66101694915254</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -6937,7 +6937,7 @@
         <v>74.477611940298502</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -7027,7 +7027,7 @@
         <v>74.883720930232556</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
         <v>19</v>
@@ -7117,7 +7117,7 @@
         <v>77.034883720930239</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
         <v>20</v>
@@ -7207,7 +7207,7 @@
         <v>73.333333333333343</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -7299,11 +7299,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A51:A62"/>
     <mergeCell ref="A63:A74"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -7319,6 +7314,11 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A51:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -7330,221 +7330,227 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADA8B92-6021-4239-AAAE-BC7519EB0750}">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AC5"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="AD2" s="7"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C3" s="6">
         <v>676</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="6">
         <v>694</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>676</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>677</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>686</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>684</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>685</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>683</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>685</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>683</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>685</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>683</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>696</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>692</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>696</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>691</v>
       </c>
-      <c r="R3" s="6">
+      <c r="S3" s="6">
         <v>718</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <v>714</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <v>718</v>
-      </c>
-      <c r="U3" s="6">
-        <v>714</v>
       </c>
       <c r="V3" s="6">
         <v>714</v>
@@ -7553,78 +7559,81 @@
         <v>714</v>
       </c>
       <c r="X3" s="6">
+        <v>714</v>
+      </c>
+      <c r="Y3" s="6">
         <v>718</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Z3" s="6">
         <v>715</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AA3" s="6">
         <v>695</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AB3" s="6">
         <v>693</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AC3" s="6">
         <v>695</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AD3" s="6">
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
+      <c r="C4" s="6">
         <v>626</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="6">
         <v>639</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>630</v>
-      </c>
-      <c r="E4" s="6">
-        <v>633</v>
       </c>
       <c r="F4" s="6">
         <v>633</v>
       </c>
       <c r="G4" s="6">
+        <v>633</v>
+      </c>
+      <c r="H4" s="6">
         <v>635</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>633</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>635</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>633</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>635</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>633</v>
-      </c>
-      <c r="M4" s="6">
-        <v>635</v>
       </c>
       <c r="N4" s="6">
         <v>635</v>
       </c>
       <c r="O4" s="6">
+        <v>635</v>
+      </c>
+      <c r="P4" s="6">
         <v>634</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>636</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>634</v>
-      </c>
-      <c r="R4" s="6">
-        <v>654</v>
       </c>
       <c r="S4" s="6">
         <v>654</v>
@@ -7633,7 +7642,7 @@
         <v>654</v>
       </c>
       <c r="U4" s="6">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="V4" s="6">
         <v>653</v>
@@ -7642,129 +7651,135 @@
         <v>653</v>
       </c>
       <c r="X4" s="6">
+        <v>653</v>
+      </c>
+      <c r="Y4" s="6">
         <v>654</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Z4" s="6">
         <v>653</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AA4" s="6">
         <v>633</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AB4" s="6">
         <v>636</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AC4" s="6">
         <v>633</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AD4" s="6">
         <v>636</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C5" s="6">
         <v>648</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <v>660</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>657</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>645</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>659</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>646</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>659</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>646</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>659</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>646</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>658</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>646</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>663</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>651</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <v>663</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>651</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <v>684</v>
       </c>
-      <c r="S5" s="6">
+      <c r="T5" s="6">
         <v>671</v>
       </c>
-      <c r="T5" s="6">
+      <c r="U5" s="6">
         <v>683</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="6">
         <v>671</v>
       </c>
-      <c r="V5" s="6">
+      <c r="W5" s="6">
         <v>684</v>
       </c>
-      <c r="W5" s="6">
+      <c r="X5" s="6">
         <v>670</v>
       </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="6">
         <v>685</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Z5" s="6">
         <v>678</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
         <v>663</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AB5" s="6">
         <v>657</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AC5" s="6">
         <v>660</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AD5" s="6">
         <v>655</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7772,151 +7787,166 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25BF990-4F4C-4D07-A408-3DB67A429529}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="5">
         <v>90.96989966555185</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>72.521739130434781</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>88.981636060100172</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>73.611111111111114</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>85.642737896494154</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>66.319444444444443</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>57.833333333333336</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>74.52339688041593</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>93.656716417910445</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>78.393881453154876</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>92.449355432780848</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>78.967495219885279</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>87.683823529411768</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>70.172084130019115</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>64.154411764705884</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>74.809160305343511</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>93.49005424954791</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>79.545454545454547</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>92.391304347826093</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>80.303030303030297</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>89.150090415913198</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>70.321361058601141</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>67.82449725776965</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>76.952380952380949</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7924,151 +7954,166 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADF8958-2C69-4C66-A925-6040D995A0FE}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>598</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>578</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>599</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>576</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>599</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>576</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>600</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>577</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>536</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>523</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>543</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>523</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>544</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>523</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>544</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>553</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>531</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>552</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>529</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>553</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>529</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>550</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>526</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8076,644 +8121,659 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F139138-41F9-4CAE-9AC7-D5EBB2F35C09}">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7" t="s">
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="7"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="AR2" s="7"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="5">
         <v>75.943396226415089</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>58.1151832460733</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>71.698113207547181</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>55.497382198952884</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>57.894736842105267</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>49.751243781094523</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>53.403141361256544</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>48.275862068965516</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>53.80952380952381</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>57.339449541284402</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>56.19047619047619</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>61.009174311926607</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>57.619047619047613</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>57.339449541284402</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>54.285714285714292</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>56.880733944954123</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>53.333333333333336</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>64.678899082568805</v>
       </c>
-      <c r="T3" s="5">
+      <c r="U3" s="5">
         <v>50.952380952380949</v>
       </c>
-      <c r="U3" s="5">
+      <c r="V3" s="5">
         <v>65.596330275229349</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W3" s="5">
         <v>51.904761904761898</v>
       </c>
-      <c r="W3" s="5">
+      <c r="X3" s="5">
         <v>64.678899082568805</v>
       </c>
-      <c r="X3" s="5">
+      <c r="Y3" s="5">
         <v>52.380952380952387</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Z3" s="5">
         <v>66.513761467889907</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AA3" s="5">
         <v>51.904761904761898</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AB3" s="5">
         <v>64.734299516908209</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AC3" s="5">
         <v>53.333333333333336</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AD3" s="5">
         <v>69.266055045871553</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AE3" s="5">
         <v>53.333333333333336</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AF3" s="5">
         <v>69.724770642201833</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AG3" s="5">
         <v>54.285714285714292</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AH3" s="5">
         <v>69.724770642201833</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AI3" s="5">
         <v>51.904761904761898</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AJ3" s="5">
         <v>69.406392694063925</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AK3" s="5">
         <v>54.066985645933016</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AL3" s="5">
         <v>67.88990825688073</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AM3" s="5">
         <v>52.153110047846887</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AN3" s="5">
         <v>68.348623853211009</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AO3" s="5">
         <v>53.110047846889955</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="AP3" s="5">
         <v>66.972477064220186</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AQ3" s="5">
         <v>50.724637681159422</v>
       </c>
-      <c r="AQ3" s="5">
+      <c r="AR3" s="5">
         <v>72.38095238095238</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>78.894472361809036</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>59.562841530054641</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>76.5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>56.830601092896174</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>61.53846153846154</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>51.086956521739133</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>53.254437869822489</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>51.075268817204304</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>61.53846153846154</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>71.428571428571431</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>57.526881720430097</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>68</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>55.913978494623649</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>63.681592039800996</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>52.941176470588239</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>62.189054726368155</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>56.149732620320862</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T4" s="5">
         <v>69.5</v>
       </c>
-      <c r="T4" s="5">
+      <c r="U4" s="5">
         <v>55.080213903743314</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>67.164179104477611</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <v>55.080213903743314</v>
       </c>
-      <c r="W4" s="5">
+      <c r="X4" s="5">
         <v>68</v>
       </c>
-      <c r="X4" s="5">
+      <c r="Y4" s="5">
         <v>55.614973262032088</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Z4" s="5">
         <v>72.139303482587053</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AA4" s="5">
         <v>57.219251336898402</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AB4" s="5">
         <v>68.911917098445599</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AC4" s="5">
         <v>59.677419354838712</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AD4" s="5">
         <v>72.139303482587053</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AE4" s="5">
         <v>58.288770053475936</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AF4" s="5">
         <v>73.631840796019901</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AG4" s="5">
         <v>56.684491978609628</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AH4" s="5">
         <v>76.119402985074629</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AI4" s="5">
         <v>55.614973262032088</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AJ4" s="5">
         <v>76.616915422885583</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AK4" s="5">
         <v>59.893048128342244</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AL4" s="5">
         <v>77.611940298507463</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AM4" s="5">
         <v>58.82352941176471</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AN4" s="5">
         <v>77.114427860696509</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AO4" s="5">
         <v>60.752688172043015</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AP4" s="5">
         <v>78.5</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AQ4" s="5">
         <v>60.427807486631011</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AR4" s="5">
         <v>77.664974619289339</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>86.877828054298647</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>70.243902439024382</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>84.090909090909093</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>71.219512195121951</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>79.787234042553195</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>67.64705882352942</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>71.808510638297875</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>68.932038834951456</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>72.59615384615384</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>76.126126126126124</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>74.519230769230774</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>79.729729729729726</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>72.115384615384613</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>76.126126126126124</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>69.230769230769226</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>75.225225225225216</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>71.770334928229659</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>79.729729729729726</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <v>70.334928229665067</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>79.27927927927928</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <v>71.634615384615387</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <v>79.729729729729726</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Y5" s="5">
         <v>72.248803827751189</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Z5" s="5">
         <v>81.981981981981988</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="5">
         <v>74.038461538461547</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AB5" s="5">
         <v>79.620853080568722</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="5">
         <v>74.162679425837325</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="5">
         <v>83.333333333333343</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AE5" s="5">
         <v>74.162679425837325</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AF5" s="5">
         <v>84.684684684684683</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AG5" s="5">
         <v>74.162679425837325</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AH5" s="5">
         <v>83.78378378378379</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AI5" s="5">
         <v>73.20574162679425</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AJ5" s="5">
         <v>83.333333333333343</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AK5" s="5">
         <v>73.846153846153854</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AL5" s="5">
         <v>83.333333333333343</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AM5" s="5">
         <v>72.820512820512832</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AN5" s="5">
         <v>84.285714285714292</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AO5" s="5">
         <v>74.358974358974365</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AP5" s="5">
         <v>84.285714285714292</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AQ5" s="5">
         <v>69.743589743589737</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AR5" s="5">
         <v>87.254901960784309</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8721,644 +8781,659 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFC1BD9-FBFB-497C-B985-5D07F08D7E6E}">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AQ5"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7" t="s">
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="7"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="AR2" s="7"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>212</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>191</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>212</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>191</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>190</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>201</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>206</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>217</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>210</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>218</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>210</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>218</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>210</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>218</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>210</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>218</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>210</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>218</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>210</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>218</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
         <v>210</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X3" s="2">
         <v>218</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <v>210</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Z3" s="2">
         <v>218</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AA3" s="2">
         <v>210</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AB3" s="2">
         <v>207</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AC3" s="2">
         <v>210</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AD3" s="2">
         <v>218</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AE3" s="2">
         <v>210</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AF3" s="2">
         <v>218</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AG3" s="2">
         <v>210</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AH3" s="2">
         <v>218</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AI3" s="2">
         <v>210</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AJ3" s="2">
         <v>219</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AK3" s="2">
         <v>210</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AL3" s="2">
         <v>219</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AM3" s="2">
         <v>209</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AN3" s="2">
         <v>218</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AO3" s="2">
         <v>209</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AP3" s="2">
         <v>218</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AQ3" s="2">
         <v>208</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AR3" s="2">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>199</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>183</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>200</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>183</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>169</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>184</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>185</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>200</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>161</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>170</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>186</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>200</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>186</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>201</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>187</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>201</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>187</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>200</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>187</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>201</v>
       </c>
-      <c r="V4" s="2">
+      <c r="W4" s="2">
         <v>187</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>200</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <v>187</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Z4" s="2">
         <v>201</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AA4" s="2">
         <v>187</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <v>193</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AC4" s="2">
         <v>186</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
         <v>201</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AE4" s="2">
         <v>187</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>201</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AG4" s="2">
         <v>187</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AH4" s="2">
         <v>201</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AI4" s="2">
         <v>187</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AJ4" s="2">
         <v>201</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AK4" s="2">
         <v>187</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AL4" s="2">
         <v>201</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AM4" s="2">
         <v>187</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AN4" s="2">
         <v>201</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AO4" s="2">
         <v>187</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AP4" s="2">
         <v>200</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AQ4" s="2">
         <v>187</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AR4" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>221</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>205</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>220</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>205</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>188</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>204</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>203</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>222</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>209</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>222</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>208</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>222</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>208</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>222</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>208</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>222</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>209</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>222</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>209</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>222</v>
       </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
         <v>209</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>222</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>209</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Z5" s="2">
         <v>222</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AA5" s="2">
         <v>209</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <v>211</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AC5" s="2">
         <v>209</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>222</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AE5" s="2">
         <v>209</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AF5" s="2">
         <v>222</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AG5" s="2">
         <v>209</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AH5" s="2">
         <v>222</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AI5" s="2">
         <v>209</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AJ5" s="2">
         <v>222</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AK5" s="2">
         <v>209</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AL5" s="2">
         <v>222</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AM5" s="2">
         <v>195</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AN5" s="2">
         <v>210</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AO5" s="2">
         <v>195</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AP5" s="2">
         <v>210</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AQ5" s="2">
         <v>195</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AR5" s="2">
         <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9366,254 +9441,269 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8755A71-6ADD-4968-9368-402CDB1F532F}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:O5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="5">
         <v>96.178343949044589</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>98.734177215189874</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>92.405063291139243</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>96.202531645569621</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>94.303797468354432</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>93.081761006289312</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>96.202531645569621</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>96.226415094339629</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>97.468354430379748</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>86.029411764705884</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>98.550724637681171</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>86.131386861313871</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>95.652173913043484</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>87.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>94.838709677419359</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>97.41935483870968</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>85.256410256410248</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>96.129032258064512</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>89.743589743589752</v>
-      </c>
-      <c r="G4" s="5">
-        <v>93.548387096774206</v>
       </c>
       <c r="H4" s="5">
         <v>93.548387096774206</v>
       </c>
       <c r="I4" s="5">
+        <v>93.548387096774206</v>
+      </c>
+      <c r="J4" s="5">
         <v>94.230769230769226</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>96.753246753246756</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>91.111111111111114</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>97.058823529411768</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>90.370370370370367</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>97.037037037037038</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>91.111111111111114</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>94.642857142857139</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>97.61904761904762</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>92.857142857142861</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>97.023809523809518</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>94.047619047619051</v>
-      </c>
-      <c r="G5" s="5">
-        <v>95.238095238095227</v>
       </c>
       <c r="H5" s="5">
         <v>95.238095238095227</v>
       </c>
       <c r="I5" s="5">
+        <v>95.238095238095227</v>
+      </c>
+      <c r="J5" s="5">
         <v>93.452380952380949</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>96.428571428571431</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>84.246575342465761</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>95.918367346938766</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>83.673469387755105</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>95.918367346938766</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>85.714285714285722</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9621,113 +9711,119 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EF2021-81E0-45E3-9649-A161765527CE}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>159</v>
-      </c>
-      <c r="C3" s="2">
-        <v>158</v>
       </c>
       <c r="D3" s="2">
         <v>158</v>
@@ -9739,86 +9835,92 @@
         <v>158</v>
       </c>
       <c r="G3" s="2">
+        <v>158</v>
+      </c>
+      <c r="H3" s="2">
         <v>159</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>158</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>159</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>160</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>159</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>138</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>137</v>
-      </c>
-      <c r="N3" s="2">
-        <v>138</v>
       </c>
       <c r="O3" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="P3" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>156</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>155</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>156</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>155</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>156</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>157</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>155</v>
-      </c>
-      <c r="I4" s="2">
-        <v>156</v>
       </c>
       <c r="J4" s="2">
         <v>156</v>
       </c>
       <c r="K4" s="2">
+        <v>156</v>
+      </c>
+      <c r="L4" s="2">
         <v>157</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>136</v>
-      </c>
-      <c r="M4" s="2">
-        <v>135</v>
       </c>
       <c r="N4" s="2">
         <v>135</v>
       </c>
       <c r="O4" s="2">
+        <v>135</v>
+      </c>
+      <c r="P4" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>168</v>
       </c>
       <c r="C5" s="2">
         <v>168</v>
@@ -9848,7 +9950,7 @@
         <v>168</v>
       </c>
       <c r="L5" s="2">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="M5" s="2">
         <v>147</v>
@@ -9859,15 +9961,18 @@
       <c r="O5" s="2">
         <v>147</v>
       </c>
+      <c r="P5" s="2">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9881,9 +9986,9 @@
       <selection activeCell="C1" sqref="C1:AD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -9969,7 +10074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10033,7 +10138,7 @@
       </c>
       <c r="AD2" s="7"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2019</v>
       </c>
@@ -10125,7 +10230,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -10215,7 +10320,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -10305,7 +10410,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -10395,7 +10500,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -10485,7 +10590,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -10575,7 +10680,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -10665,7 +10770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -10755,7 +10860,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -10845,7 +10950,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -10935,7 +11040,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -11025,7 +11130,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -11115,7 +11220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
@@ -11207,7 +11312,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -11297,7 +11402,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -11387,7 +11492,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -11477,7 +11582,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -11567,7 +11672,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -11657,7 +11762,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -11747,7 +11852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -11837,7 +11942,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>18</v>
@@ -11927,7 +12032,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -12017,7 +12122,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -12107,7 +12212,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -12197,7 +12302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2021</v>
       </c>
@@ -12289,7 +12394,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -12379,7 +12484,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -12469,7 +12574,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -12559,7 +12664,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -12649,7 +12754,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -12739,7 +12844,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -12829,7 +12934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -12919,7 +13024,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -13009,7 +13114,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -13099,7 +13204,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>20</v>
@@ -13189,7 +13294,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
@@ -13279,7 +13384,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2022</v>
       </c>
@@ -13371,7 +13476,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -13461,7 +13566,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -13551,7 +13656,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -13641,7 +13746,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -13731,7 +13836,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -13821,7 +13926,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -13911,7 +14016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -14001,7 +14106,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>18</v>
@@ -14091,7 +14196,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>19</v>
@@ -14181,7 +14286,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>20</v>
@@ -14271,7 +14376,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>21</v>
@@ -14361,7 +14466,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>2023</v>
       </c>
@@ -14453,7 +14558,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -14543,7 +14648,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -14633,7 +14738,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -14723,7 +14828,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -14813,7 +14918,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>14</v>
@@ -14903,7 +15008,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -14993,7 +15098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -15083,7 +15188,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>18</v>
@@ -15173,7 +15278,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -15263,7 +15368,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
         <v>20</v>
@@ -15353,7 +15458,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
         <v>21</v>
@@ -15443,7 +15548,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>2024</v>
       </c>
@@ -15535,7 +15640,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -15625,7 +15730,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
         <v>11</v>
@@ -15715,7 +15820,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -15805,7 +15910,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -15895,7 +16000,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -15985,7 +16090,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -16075,7 +16180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -16165,7 +16270,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -16255,7 +16360,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
         <v>19</v>
@@ -16345,7 +16450,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
         <v>20</v>
@@ -16435,7 +16540,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -16527,11 +16632,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -16546,6 +16646,11 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -16563,9 +16668,9 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -16591,7 +16696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -16615,7 +16720,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2019</v>
       </c>
@@ -16647,7 +16752,7 @@
         <v>81.206896551724142</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -16677,7 +16782,7 @@
         <v>60.769230769230774</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -16707,7 +16812,7 @@
         <v>82.897033158813258</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -16737,7 +16842,7 @@
         <v>86.545454545454547</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -16767,7 +16872,7 @@
         <v>79.230769230769226</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -16797,7 +16902,7 @@
         <v>84.061696658097688</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -16827,7 +16932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -16857,7 +16962,7 @@
         <v>73.875802997858671</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -16887,7 +16992,7 @@
         <v>79.887218045112789</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -16917,7 +17022,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -16947,7 +17052,7 @@
         <v>84.107142857142861</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -16977,7 +17082,7 @@
         <v>85.996409335727108</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
@@ -17009,7 +17114,7 @@
         <v>81.739130434782609</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -17039,7 +17144,7 @@
         <v>86.876155268022188</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -17069,7 +17174,7 @@
         <v>92.041522491349482</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -17099,7 +17204,7 @@
         <v>92.307692307692307</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -17129,7 +17234,7 @@
         <v>90.4296875</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -17159,7 +17264,7 @@
         <v>84.180790960451972</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -17189,7 +17294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -17219,7 +17324,7 @@
         <v>90.789473684210535</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>18</v>
@@ -17249,7 +17354,7 @@
         <v>86.767485822306242</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -17279,7 +17384,7 @@
         <v>85.582255083179291</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -17309,7 +17414,7 @@
         <v>88.721804511278208</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -17339,7 +17444,7 @@
         <v>89.247311827956992</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
@@ -17371,7 +17476,7 @@
         <v>89.757914338919932</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -17401,7 +17506,7 @@
         <v>82.008368200836827</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -17431,7 +17536,7 @@
         <v>79.338842975206617</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -17461,7 +17566,7 @@
         <v>81.687242798353907</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -17491,7 +17596,7 @@
         <v>80.076628352490417</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -17521,7 +17626,7 @@
         <v>89.145496535796767</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -17551,7 +17656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -17581,7 +17686,7 @@
         <v>79.859484777517565</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -17611,7 +17716,7 @@
         <v>85.877862595419856</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -17641,7 +17746,7 @@
         <v>77.00934579439253</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>20</v>
@@ -17671,7 +17776,7 @@
         <v>77.862595419847324</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
@@ -17701,7 +17806,7 @@
         <v>86.964285714285722</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2022</v>
       </c>
@@ -17733,7 +17838,7 @@
         <v>86.556169429097608</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -17763,7 +17868,7 @@
         <v>90.269151138716353</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -17793,7 +17898,7 @@
         <v>87.108655616942912</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -17823,7 +17928,7 @@
         <v>84.358974358974365</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -17853,7 +17958,7 @@
         <v>85.68421052631578</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -17883,7 +17988,7 @@
         <v>81.081081081081081</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -17913,7 +18018,7 @@
         <v>78.94736842105263</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -17943,7 +18048,7 @@
         <v>78.976234003656316</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>18</v>
@@ -17973,7 +18078,7 @@
         <v>74.245472837022135</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>19</v>
@@ -18003,7 +18108,7 @@
         <v>80.633147113594035</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>20</v>
@@ -18033,7 +18138,7 @@
         <v>85.9375</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>21</v>
@@ -18063,7 +18168,7 @@
         <v>74.187725631768956</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>2023</v>
       </c>
@@ -18095,7 +18200,7 @@
         <v>74.740484429065745</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -18125,7 +18230,7 @@
         <v>85.537190082644628</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -18155,7 +18260,7 @@
         <v>77.634011090573011</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -18185,7 +18290,7 @@
         <v>83.631713554987215</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -18215,7 +18320,7 @@
         <v>83.7890625</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>14</v>
@@ -18245,7 +18350,7 @@
         <v>76.785714285714278</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -18275,7 +18380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -18305,7 +18410,7 @@
         <v>40.094339622641506</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>18</v>
@@ -18335,7 +18440,7 @@
         <v>49.031007751937985</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -18365,7 +18470,7 @@
         <v>81.433823529411768</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
         <v>20</v>
@@ -18395,7 +18500,7 @@
         <v>79.721669980119287</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
         <v>21</v>
@@ -18425,7 +18530,7 @@
         <v>82.320441988950279</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>2024</v>
       </c>
@@ -18457,7 +18562,7 @@
         <v>72.695035460992912</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -18487,7 +18592,7 @@
         <v>77.67527675276753</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
         <v>11</v>
@@ -18517,7 +18622,7 @@
         <v>79.478260869565219</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -18547,7 +18652,7 @@
         <v>76.717557251908403</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -18577,7 +18682,7 @@
         <v>77.091633466135463</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -18607,7 +18712,7 @@
         <v>73.966942148760324</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -18637,7 +18742,7 @@
         <v>68.421052631578945</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -18667,7 +18772,7 @@
         <v>69.512195121951208</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -18697,7 +18802,7 @@
         <v>75.525812619502858</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
         <v>19</v>
@@ -18727,7 +18832,7 @@
         <v>76.383763837638369</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
         <v>20</v>
@@ -18757,7 +18862,7 @@
         <v>75.518672199170126</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -18789,16 +18894,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A39:A50"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A51:A62"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A39:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -18816,9 +18921,9 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -18844,7 +18949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -18868,7 +18973,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2019</v>
       </c>
@@ -18900,7 +19005,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -18930,7 +19035,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -18960,7 +19065,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -18990,7 +19095,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -19020,7 +19125,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -19050,7 +19155,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -19080,7 +19185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -19110,7 +19215,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -19140,7 +19245,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -19170,7 +19275,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -19200,7 +19305,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -19230,7 +19335,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
@@ -19262,7 +19367,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -19292,7 +19397,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -19322,7 +19427,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -19352,7 +19457,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -19382,7 +19487,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -19412,7 +19517,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -19442,7 +19547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -19472,7 +19577,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>18</v>
@@ -19502,7 +19607,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -19532,7 +19637,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -19562,7 +19667,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -19592,7 +19697,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
@@ -19624,7 +19729,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -19654,7 +19759,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -19684,7 +19789,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -19714,7 +19819,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -19744,7 +19849,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -19774,7 +19879,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -19804,7 +19909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -19834,7 +19939,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -19864,7 +19969,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -19894,7 +19999,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>20</v>
@@ -19924,7 +20029,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
@@ -19954,7 +20059,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2022</v>
       </c>
@@ -19986,7 +20091,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -20016,7 +20121,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -20046,7 +20151,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -20076,7 +20181,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -20106,7 +20211,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -20136,7 +20241,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -20166,7 +20271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -20196,7 +20301,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>18</v>
@@ -20226,7 +20331,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>19</v>
@@ -20256,7 +20361,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>20</v>
@@ -20286,7 +20391,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>21</v>
@@ -20316,7 +20421,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>2023</v>
       </c>
@@ -20348,7 +20453,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -20378,7 +20483,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -20408,7 +20513,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -20438,7 +20543,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -20468,7 +20573,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>14</v>
@@ -20498,7 +20603,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -20528,7 +20633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -20558,7 +20663,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>18</v>
@@ -20588,7 +20693,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -20618,7 +20723,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
         <v>20</v>
@@ -20648,7 +20753,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
         <v>21</v>
@@ -20678,7 +20783,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>2024</v>
       </c>
@@ -20710,7 +20815,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -20740,7 +20845,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
         <v>11</v>
@@ -20770,7 +20875,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -20800,7 +20905,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -20830,7 +20935,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -20860,7 +20965,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -20890,7 +20995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -20920,7 +21025,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -20950,7 +21055,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
         <v>19</v>
@@ -20980,7 +21085,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
         <v>20</v>
@@ -21010,7 +21115,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -21042,16 +21147,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -21069,9 +21174,9 @@
       <selection activeCell="C1" sqref="C1:AR74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
@@ -21199,7 +21304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -21291,7 +21396,7 @@
       </c>
       <c r="AR2" s="7"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2019</v>
       </c>
@@ -21425,7 +21530,7 @@
         <v>91.402714932126699</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -21557,7 +21662,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -21689,7 +21794,7 @@
         <v>92.660550458715591</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -21821,7 +21926,7 @@
         <v>88.235294117647058</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -21953,7 +22058,7 @@
         <v>90.104166666666657</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -22085,7 +22190,7 @@
         <v>91.724137931034491</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -22217,7 +22322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -22349,7 +22454,7 @@
         <v>82.584269662921344</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -22481,7 +22586,7 @@
         <v>86.3849765258216</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -22613,7 +22718,7 @@
         <v>86.79245283018868</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -22745,7 +22850,7 @@
         <v>89.15094339622641</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -22877,7 +22982,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
@@ -23011,7 +23116,7 @@
         <v>85.321100917431195</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -23143,7 +23248,7 @@
         <v>87.437185929648237</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -23275,7 +23380,7 @@
         <v>85.294117647058826</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -23407,7 +23512,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -23539,7 +23644,7 @@
         <v>94.736842105263165</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -23671,7 +23776,7 @@
         <v>89.0625</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -23803,7 +23908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -23935,7 +24040,7 @@
         <v>90.857142857142861</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>18</v>
@@ -24067,7 +24172,7 @@
         <v>90.555555555555557</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -24199,7 +24304,7 @@
         <v>82.741116751269033</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -24331,7 +24436,7 @@
         <v>91.747572815533985</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -24463,7 +24568,7 @@
         <v>94.258373205741634</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
@@ -24597,7 +24702,7 @@
         <v>91.538461538461533</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -24729,7 +24834,7 @@
         <v>89.65517241379311</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -24861,7 +24966,7 @@
         <v>91.379310344827587</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -24993,7 +25098,7 @@
         <v>94.827586206896555</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -25125,7 +25230,7 @@
         <v>90.163934426229503</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -25257,7 +25362,7 @@
         <v>89.719626168224295</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -25389,7 +25494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -25521,7 +25626,7 @@
         <v>80.864197530864203</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -25653,7 +25758,7 @@
         <v>84.729064039408868</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -25785,7 +25890,7 @@
         <v>75.480769230769226</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>20</v>
@@ -25917,7 +26022,7 @@
         <v>86.829268292682926</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
@@ -26049,7 +26154,7 @@
         <v>87.922705314009661</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2022</v>
       </c>
@@ -26183,7 +26288,7 @@
         <v>90.954773869346738</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -26315,7 +26420,7 @@
         <v>94.267515923566876</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -26447,7 +26552,7 @@
         <v>93.95348837209302</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -26579,7 +26684,7 @@
         <v>88.387096774193552</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -26711,7 +26816,7 @@
         <v>87.755102040816325</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -26843,7 +26948,7 @@
         <v>82.547169811320757</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -26975,7 +27080,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -27107,7 +27212,7 @@
         <v>90.08620689655173</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>18</v>
@@ -27239,7 +27344,7 @@
         <v>84.343434343434339</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>19</v>
@@ -27371,7 +27476,7 @@
         <v>87.559808612440193</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>20</v>
@@ -27503,7 +27608,7 @@
         <v>79.047619047619051</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>21</v>
@@ -27635,7 +27740,7 @@
         <v>74.611398963730565</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>2023</v>
       </c>
@@ -27769,7 +27874,7 @@
         <v>77.227722772277232</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -27901,7 +28006,7 @@
         <v>92.045454545454547</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -28033,7 +28138,7 @@
         <v>88.265306122448976</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -28165,7 +28270,7 @@
         <v>87.969924812030072</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -28297,7 +28402,7 @@
         <v>87.640449438202253</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>14</v>
@@ -28429,7 +28534,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -28561,7 +28666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -28693,7 +28798,7 @@
         <v>63.309352517985616</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>18</v>
@@ -28825,7 +28930,7 @@
         <v>62.430939226519342</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -28957,7 +29062,7 @@
         <v>86.910994764397913</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
         <v>20</v>
@@ -29089,7 +29194,7 @@
         <v>86.956521739130437</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
         <v>21</v>
@@ -29221,7 +29326,7 @@
         <v>86.4321608040201</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>2024</v>
       </c>
@@ -29355,7 +29460,7 @@
         <v>69.101123595505626</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -29487,7 +29592,7 @@
         <v>81.818181818181813</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
         <v>11</v>
@@ -29619,7 +29724,7 @@
         <v>86.829268292682926</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -29751,7 +29856,7 @@
         <v>87.128712871287135</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -29883,7 +29988,7 @@
         <v>83.529411764705884</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -30015,7 +30120,7 @@
         <v>77.401129943502823</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -30147,7 +30252,7 @@
         <v>91.304347826086968</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -30279,7 +30384,7 @@
         <v>86.098654708520186</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -30411,7 +30516,7 @@
         <v>77.41935483870968</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
         <v>19</v>
@@ -30543,7 +30648,7 @@
         <v>86.3849765258216</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
         <v>20</v>
@@ -30675,7 +30780,7 @@
         <v>84.35754189944133</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -30809,6 +30914,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -30825,17 +30941,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -30853,9 +30958,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
@@ -30983,7 +31088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -31075,7 +31180,7 @@
       </c>
       <c r="AR2" s="7"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2019</v>
       </c>
@@ -31209,7 +31314,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -31341,7 +31446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -31473,7 +31578,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -31605,7 +31710,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -31737,7 +31842,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -31869,7 +31974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -32001,7 +32106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -32133,7 +32238,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -32265,7 +32370,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -32397,7 +32502,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -32529,7 +32634,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -32661,7 +32766,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
@@ -32795,7 +32900,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -32927,7 +33032,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -33059,7 +33164,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -33191,7 +33296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -33323,7 +33428,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -33455,7 +33560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -33587,7 +33692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -33719,7 +33824,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>18</v>
@@ -33851,7 +33956,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -33983,7 +34088,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -34115,7 +34220,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -34247,7 +34352,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
@@ -34381,7 +34486,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -34513,7 +34618,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -34645,7 +34750,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -34777,7 +34882,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -34909,7 +35014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -35041,7 +35146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -35173,7 +35278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -35305,7 +35410,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -35437,7 +35542,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -35569,7 +35674,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>20</v>
@@ -35701,7 +35806,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
@@ -35833,7 +35938,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2022</v>
       </c>
@@ -35967,7 +36072,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -36099,7 +36204,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -36231,7 +36336,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -36363,7 +36468,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -36495,7 +36600,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -36627,7 +36732,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -36759,7 +36864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -36891,7 +36996,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>18</v>
@@ -37023,7 +37128,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>19</v>
@@ -37155,7 +37260,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>20</v>
@@ -37287,7 +37392,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>21</v>
@@ -37419,7 +37524,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>2023</v>
       </c>
@@ -37553,7 +37658,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -37685,7 +37790,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -37817,7 +37922,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -37949,7 +38054,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -38081,7 +38186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>14</v>
@@ -38213,7 +38318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -38345,7 +38450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -38477,7 +38582,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>18</v>
@@ -38609,7 +38714,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -38741,7 +38846,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
         <v>20</v>
@@ -38873,7 +38978,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
         <v>21</v>
@@ -39005,7 +39110,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>2024</v>
       </c>
@@ -39139,7 +39244,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -39271,7 +39376,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
         <v>11</v>
@@ -39403,7 +39508,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -39535,7 +39640,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -39667,7 +39772,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -39799,7 +39904,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -39931,7 +40036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -40063,7 +40168,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -40195,7 +40300,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
         <v>19</v>
@@ -40327,7 +40432,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
         <v>20</v>
@@ -40459,7 +40564,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -40593,6 +40698,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -40609,17 +40725,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -40637,25 +40742,25 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
@@ -40699,7 +40804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -40763,7 +40868,7 @@
       <c r="AQ2" s="8"/>
       <c r="AR2" s="8"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2019</v>
       </c>
@@ -40841,7 +40946,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -40917,7 +41022,7 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -40993,7 +41098,7 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -41069,7 +41174,7 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -41145,7 +41250,7 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -41221,7 +41326,7 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -41297,7 +41402,7 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -41373,7 +41478,7 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -41449,7 +41554,7 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -41525,7 +41630,7 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -41601,7 +41706,7 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -41677,7 +41782,7 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
@@ -41755,7 +41860,7 @@
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -41831,7 +41936,7 @@
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -41907,7 +42012,7 @@
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -41983,7 +42088,7 @@
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -42059,7 +42164,7 @@
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -42135,7 +42240,7 @@
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -42211,7 +42316,7 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -42287,7 +42392,7 @@
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>18</v>
@@ -42363,7 +42468,7 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -42439,7 +42544,7 @@
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -42515,7 +42620,7 @@
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -42591,7 +42696,7 @@
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
@@ -42669,7 +42774,7 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -42745,7 +42850,7 @@
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -42821,7 +42926,7 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -42897,7 +43002,7 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -42973,7 +43078,7 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -43049,7 +43154,7 @@
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -43125,7 +43230,7 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -43201,7 +43306,7 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -43277,7 +43382,7 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -43353,7 +43458,7 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>20</v>
@@ -43429,7 +43534,7 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
@@ -43505,7 +43610,7 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2022</v>
       </c>
@@ -43583,7 +43688,7 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -43659,7 +43764,7 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -43735,7 +43840,7 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -43811,7 +43916,7 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -43887,7 +43992,7 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -43963,7 +44068,7 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -44039,7 +44144,7 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -44115,7 +44220,7 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>18</v>
@@ -44191,7 +44296,7 @@
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>19</v>
@@ -44267,7 +44372,7 @@
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>20</v>
@@ -44343,7 +44448,7 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>21</v>
@@ -44419,7 +44524,7 @@
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>2023</v>
       </c>
@@ -44497,7 +44602,7 @@
       <c r="AQ51" s="1"/>
       <c r="AR51" s="1"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -44573,7 +44678,7 @@
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -44649,7 +44754,7 @@
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -44725,7 +44830,7 @@
       <c r="AQ54" s="1"/>
       <c r="AR54" s="1"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -44801,7 +44906,7 @@
       <c r="AQ55" s="1"/>
       <c r="AR55" s="1"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>14</v>
@@ -44877,7 +44982,7 @@
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -44953,7 +45058,7 @@
       <c r="AQ57" s="1"/>
       <c r="AR57" s="1"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -45029,7 +45134,7 @@
       <c r="AQ58" s="1"/>
       <c r="AR58" s="1"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>18</v>
@@ -45105,7 +45210,7 @@
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -45181,7 +45286,7 @@
       <c r="AQ60" s="1"/>
       <c r="AR60" s="1"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
         <v>20</v>
@@ -45257,7 +45362,7 @@
       <c r="AQ61" s="1"/>
       <c r="AR61" s="1"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
         <v>21</v>
@@ -45333,7 +45438,7 @@
       <c r="AQ62" s="1"/>
       <c r="AR62" s="1"/>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>2024</v>
       </c>
@@ -45411,7 +45516,7 @@
       <c r="AQ63" s="1"/>
       <c r="AR63" s="1"/>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -45487,7 +45592,7 @@
       <c r="AQ64" s="1"/>
       <c r="AR64" s="1"/>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
         <v>11</v>
@@ -45563,7 +45668,7 @@
       <c r="AQ65" s="1"/>
       <c r="AR65" s="1"/>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -45639,7 +45744,7 @@
       <c r="AQ66" s="1"/>
       <c r="AR66" s="1"/>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -45715,7 +45820,7 @@
       <c r="AQ67" s="1"/>
       <c r="AR67" s="1"/>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -45791,7 +45896,7 @@
       <c r="AQ68" s="1"/>
       <c r="AR68" s="1"/>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -45867,7 +45972,7 @@
       <c r="AQ69" s="1"/>
       <c r="AR69" s="1"/>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -45943,7 +46048,7 @@
       <c r="AQ70" s="1"/>
       <c r="AR70" s="1"/>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -46019,7 +46124,7 @@
       <c r="AQ71" s="1"/>
       <c r="AR71" s="1"/>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
         <v>19</v>
@@ -46095,7 +46200,7 @@
       <c r="AQ72" s="1"/>
       <c r="AR72" s="1"/>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
         <v>20</v>
@@ -46171,7 +46276,7 @@
       <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -46249,6 +46354,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -46265,17 +46381,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -46293,25 +46398,25 @@
       <selection activeCell="C1" sqref="C1:P74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
@@ -46355,7 +46460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -46419,7 +46524,7 @@
       <c r="AQ2" s="8"/>
       <c r="AR2" s="8"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2019</v>
       </c>
@@ -46497,7 +46602,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -46573,7 +46678,7 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -46649,7 +46754,7 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -46725,7 +46830,7 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -46801,7 +46906,7 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -46877,7 +46982,7 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -46953,7 +47058,7 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -47029,7 +47134,7 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -47105,7 +47210,7 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -47181,7 +47286,7 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -47257,7 +47362,7 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -47333,7 +47438,7 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
@@ -47411,7 +47516,7 @@
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -47487,7 +47592,7 @@
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -47563,7 +47668,7 @@
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -47639,7 +47744,7 @@
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -47715,7 +47820,7 @@
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -47791,7 +47896,7 @@
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -47867,7 +47972,7 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -47943,7 +48048,7 @@
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>18</v>
@@ -48019,7 +48124,7 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -48095,7 +48200,7 @@
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -48171,7 +48276,7 @@
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -48247,7 +48352,7 @@
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
@@ -48325,7 +48430,7 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -48401,7 +48506,7 @@
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -48477,7 +48582,7 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -48553,7 +48658,7 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>13</v>
@@ -48629,7 +48734,7 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -48705,7 +48810,7 @@
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>15</v>
@@ -48781,7 +48886,7 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -48857,7 +48962,7 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -48933,7 +49038,7 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -49009,7 +49114,7 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>20</v>
@@ -49085,7 +49190,7 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
@@ -49161,7 +49266,7 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2022</v>
       </c>
@@ -49239,7 +49344,7 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -49315,7 +49420,7 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -49391,7 +49496,7 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -49467,7 +49572,7 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -49543,7 +49648,7 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -49619,7 +49724,7 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -49695,7 +49800,7 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -49771,7 +49876,7 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>18</v>
@@ -49847,7 +49952,7 @@
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>19</v>
@@ -49923,7 +50028,7 @@
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>20</v>
@@ -49999,7 +50104,7 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>21</v>
@@ -50075,7 +50180,7 @@
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>2023</v>
       </c>
@@ -50153,7 +50258,7 @@
       <c r="AQ51" s="1"/>
       <c r="AR51" s="1"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -50229,7 +50334,7 @@
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -50305,7 +50410,7 @@
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -50381,7 +50486,7 @@
       <c r="AQ54" s="1"/>
       <c r="AR54" s="1"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -50457,7 +50562,7 @@
       <c r="AQ55" s="1"/>
       <c r="AR55" s="1"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>14</v>
@@ -50533,7 +50638,7 @@
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -50609,7 +50714,7 @@
       <c r="AQ57" s="1"/>
       <c r="AR57" s="1"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -50685,7 +50790,7 @@
       <c r="AQ58" s="1"/>
       <c r="AR58" s="1"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>18</v>
@@ -50761,7 +50866,7 @@
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
         <v>19</v>
@@ -50837,7 +50942,7 @@
       <c r="AQ60" s="1"/>
       <c r="AR60" s="1"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
         <v>20</v>
@@ -50913,7 +51018,7 @@
       <c r="AQ61" s="1"/>
       <c r="AR61" s="1"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
         <v>21</v>
@@ -50989,7 +51094,7 @@
       <c r="AQ62" s="1"/>
       <c r="AR62" s="1"/>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>2024</v>
       </c>
@@ -51067,7 +51172,7 @@
       <c r="AQ63" s="1"/>
       <c r="AR63" s="1"/>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -51143,7 +51248,7 @@
       <c r="AQ64" s="1"/>
       <c r="AR64" s="1"/>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
         <v>11</v>
@@ -51219,7 +51324,7 @@
       <c r="AQ65" s="1"/>
       <c r="AR65" s="1"/>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -51295,7 +51400,7 @@
       <c r="AQ66" s="1"/>
       <c r="AR66" s="1"/>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -51371,7 +51476,7 @@
       <c r="AQ67" s="1"/>
       <c r="AR67" s="1"/>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -51447,7 +51552,7 @@
       <c r="AQ68" s="1"/>
       <c r="AR68" s="1"/>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -51523,7 +51628,7 @@
       <c r="AQ69" s="1"/>
       <c r="AR69" s="1"/>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -51599,7 +51704,7 @@
       <c r="AQ70" s="1"/>
       <c r="AR70" s="1"/>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>18</v>
@@ -51675,7 +51780,7 @@
       <c r="AQ71" s="1"/>
       <c r="AR71" s="1"/>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="3" t="s">
         <v>19</v>
@@ -51751,7 +51856,7 @@
       <c r="AQ72" s="1"/>
       <c r="AR72" s="1"/>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
         <v>20</v>
@@ -51827,7 +51932,7 @@
       <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -51905,6 +52010,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -51921,17 +52037,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -51943,447 +52048,471 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80BE668-D3FE-4762-AA70-889CF92E82F3}">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="AD2" s="7"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="5">
         <v>93.34319526627219</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>81.804733727810657</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>93.34319526627219</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>81.093057607090103</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>90.510948905109487</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>74.370370370370381</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>90.948905109489047</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>73.421439060205572</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>94.014598540145982</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>73.352855051244518</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>94.160583941605836</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>76.281112737920935</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>88.936781609195407</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>79.239766081871338</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>87.5</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>80.318379160636752</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>88.28451882845188</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>74.963820549927647</v>
       </c>
-      <c r="T3" s="5">
+      <c r="U3" s="5">
         <v>85.793871866295262</v>
       </c>
-      <c r="U3" s="5">
+      <c r="V3" s="5">
         <v>72.829131652661076</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W3" s="5">
         <v>81.092436974789919</v>
       </c>
-      <c r="W3" s="5">
+      <c r="X3" s="5">
         <v>73.249299719887958</v>
       </c>
-      <c r="X3" s="5">
+      <c r="Y3" s="5">
         <v>80.406386066763417</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Z3" s="5">
         <v>72.331460674157299</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AA3" s="5">
         <v>76.690647482014384</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AB3" s="5">
         <v>69.696969696969703</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AC3" s="5">
         <v>77.553956834532372</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AD3" s="5">
         <v>71.139971139971152</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>95.367412140575084</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>87.163232963549916</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>95.079365079365076</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>86.413902053712476</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>93.36492890995261</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>80.379746835443044</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>93.36492890995261</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>79.842519685039377</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>96.050552922590839</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>80.472440944881882</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>96.208530805687204</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>83.464566929133852</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>94.173228346456696</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>85.308056872037923</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>93.238993710691815</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>86.435331230283907</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>92.201834862385326</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T4" s="5">
         <v>81.072555205047323</v>
       </c>
-      <c r="T4" s="5">
+      <c r="U4" s="5">
         <v>90.199081163859105</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>79.019908116385906</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <v>88.361408882082699</v>
       </c>
-      <c r="W4" s="5">
+      <c r="X4" s="5">
         <v>79.230769230769226</v>
       </c>
-      <c r="X4" s="5">
+      <c r="Y4" s="5">
         <v>88.801261829653001</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Z4" s="5">
         <v>78.407350689127114</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AA4" s="5">
         <v>84.518167456556085</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AB4" s="5">
         <v>68.789808917197462</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AC4" s="5">
         <v>83.728278041074262</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AD4" s="5">
         <v>69.968553459119505</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>95.061728395061735</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>84.112149532710276</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>94.063926940639277</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>83.100775193798455</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>92.26100151745068</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>74.650077760497666</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>92.41274658573596</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>73.993808049535602</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>94.08194233687405</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>74.148606811145513</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>94.528875379939208</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>78.328173374613002</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>91.553544494720967</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>81.578947368421055</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>90.950226244343895</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>82</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>88.450292397660817</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>75.192604006163322</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <v>85.777126099706749</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>72.28017883755588</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <v>82.89473684210526</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <v>72.089552238805979</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Y5" s="5">
         <v>85.520361990950221</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Z5" s="5">
         <v>72.131147540983605</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="5">
         <v>79.638009049773757</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AB5" s="5">
         <v>69.254185692541853</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="5">
         <v>80.757575757575765</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="5">
         <v>70.839694656488547</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
@@ -52392,15 +52521,6 @@
     <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52659,20 +52779,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA415D2-7A68-444D-B8D4-21829946BD75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C080BD8-9591-4C9F-8422-ED2D813EB3CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
     <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA415D2-7A68-444D-B8D4-21829946BD75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
